--- a/consignees.xlsx
+++ b/consignees.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8662D727-EDBD-4A2A-BF7E-78546290D2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3C9413-A6BB-4567-A925-35CD46C8E4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,61 +11,204 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Market Area</t>
   </si>
   <si>
+    <t>Golden Dawn</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>Aldi</t>
+  </si>
+  <si>
+    <t>Seaway Sydney</t>
+  </si>
+  <si>
+    <t>Perfection Fresh Australia</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Freshmax</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Woolworths</t>
+  </si>
+  <si>
+    <t>TI Produce Marketing</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Robert J O'Shea and Ornella M Curcio</t>
+  </si>
+  <si>
+    <t>Metcash</t>
+  </si>
+  <si>
+    <t>Agriconnect Australia</t>
+  </si>
+  <si>
+    <t>Coles</t>
+  </si>
+  <si>
+    <t>Watt Export</t>
+  </si>
+  <si>
+    <t>Dimbulah Grocer</t>
+  </si>
+  <si>
+    <t>Fresco Market Place</t>
+  </si>
+  <si>
+    <t>Fresh Berries Direct</t>
+  </si>
+  <si>
+    <t>Harris Farms Markets Pty Ltd</t>
+  </si>
+  <si>
+    <t>A.S Barr Group</t>
+  </si>
+  <si>
+    <t>Scalzi Produce</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Scomazzon Farm Store</t>
+  </si>
+  <si>
+    <t>Sharp Tubestock and Nursery – Jen Pope</t>
+  </si>
+  <si>
+    <t>Steritech</t>
+  </si>
+  <si>
+    <t>Jexbay Pty Ltd</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Lind &amp; Sons Pty Ltd</t>
+  </si>
+  <si>
+    <t>Gilbert's Fresh</t>
+  </si>
+  <si>
+    <t>Express Fruit Service</t>
+  </si>
+  <si>
+    <t>Vision International Forwarding Pty Ltd</t>
+  </si>
+  <si>
+    <t>Mode Logisitics</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Bunbury Farmers Market</t>
+  </si>
+  <si>
+    <t>Lindsay Fresh Australia</t>
+  </si>
+  <si>
+    <t>Tableland Fresh Produce</t>
+  </si>
+  <si>
+    <t>Tonnage Warehouse</t>
+  </si>
+  <si>
+    <t>The Humpy</t>
+  </si>
+  <si>
+    <t>Fresh Berry Co Pty Ltd</t>
+  </si>
+  <si>
+    <t>Mercer Mooney</t>
+  </si>
+  <si>
+    <t>The Herdsman Markets</t>
+  </si>
+  <si>
+    <t>Secret Chef Catering</t>
+  </si>
+  <si>
+    <t>Bache Bros Warehouse</t>
+  </si>
+  <si>
+    <t>OzGroup</t>
+  </si>
+  <si>
+    <t>ProFruit</t>
+  </si>
+  <si>
+    <t>Berry Sweet</t>
+  </si>
+  <si>
+    <t>JPT Ventures</t>
+  </si>
+  <si>
+    <t>Sunrise Berries</t>
+  </si>
+  <si>
+    <t>RNR Farms</t>
+  </si>
+  <si>
+    <t>Marvelus Berries</t>
+  </si>
+  <si>
     <t>16HabibDR</t>
   </si>
   <si>
-    <t>NSW</t>
+    <t>Berry North</t>
+  </si>
+  <si>
+    <t>Mountain Blue Marketing</t>
   </si>
   <si>
     <t>8HabibDR</t>
   </si>
   <si>
+    <t>Packing Station</t>
+  </si>
+  <si>
+    <t>Aldi Jandakot WA DC</t>
+  </si>
+  <si>
+    <t>Aldi Dandenong VIC DC</t>
+  </si>
+  <si>
+    <t>Aldi Derrimut VIC DC</t>
+  </si>
+  <si>
     <t>Aldi Brendale QLD DC</t>
   </si>
   <si>
-    <t>QLD</t>
-  </si>
-  <si>
-    <t>Aldi Dandenong VIC DC</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>Aldi Derrimut VIC DC</t>
-  </si>
-  <si>
-    <t>Aldi Jandakot WA DC</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
     <t>Aldi Minchinbury NSW DC</t>
   </si>
   <si>
@@ -75,31 +218,28 @@
     <t>Aldi Regency Park SA DC</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>Aldi Stapylton QLD DC</t>
   </si>
   <si>
-    <t>Bache Bros Warehouse</t>
+    <t>Warehouse Bache</t>
+  </si>
+  <si>
+    <t>Bache Market Floor</t>
   </si>
   <si>
     <t>Bennings Packhouse</t>
   </si>
   <si>
-    <t>Berry North</t>
-  </si>
-  <si>
-    <t>Berry Sweet</t>
-  </si>
-  <si>
     <t>BerryCo NSW</t>
   </si>
   <si>
     <t>BerryCo WA</t>
   </si>
   <si>
-    <t>Bunbury Farmers Market</t>
+    <t>Coles Eastern Creek NSW DC</t>
+  </si>
+  <si>
+    <t>Coles Townsville North QLD</t>
   </si>
   <si>
     <t>Coles Devonport TAS DC</t>
@@ -108,9 +248,6 @@
     <t>TAS</t>
   </si>
   <si>
-    <t>Coles Eastern Creek NSW DC</t>
-  </si>
-  <si>
     <t>Coles Edinburgh Parks SA DC</t>
   </si>
   <si>
@@ -120,13 +257,40 @@
     <t>Coles Mercorella SA DC</t>
   </si>
   <si>
+    <t>Coles Truganina VIC DC</t>
+  </si>
+  <si>
     <t>Coles Parkinson QLD DC</t>
   </si>
   <si>
-    <t>Coles Townsville North QLD</t>
-  </si>
-  <si>
-    <t>Coles Truganina VIC DC</t>
+    <t>Costco Auburn Warehouse</t>
+  </si>
+  <si>
+    <t>Costco Casuarina Warehouse</t>
+  </si>
+  <si>
+    <t>Costco Marsden Park</t>
+  </si>
+  <si>
+    <t>Costco NSW Oakdale</t>
+  </si>
+  <si>
+    <t>Costco Perth Airport</t>
+  </si>
+  <si>
+    <t>Costco Canberra</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>Costco Ringwood Warehouse</t>
+  </si>
+  <si>
+    <t>Costco Epping</t>
+  </si>
+  <si>
+    <t>Costco Lake Macquarie</t>
   </si>
   <si>
     <t>Costco Adelaide Warehouse</t>
@@ -135,186 +299,63 @@
     <t>Costco Ardeer</t>
   </si>
   <si>
-    <t>Costco Auburn Warehouse</t>
-  </si>
-  <si>
-    <t>Costco Canberra</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>Costco Casuarina Warehouse</t>
-  </si>
-  <si>
-    <t>Costco Epping</t>
-  </si>
-  <si>
-    <t>Costco Lake Macquarie</t>
-  </si>
-  <si>
-    <t>Costco Marsden Park</t>
-  </si>
-  <si>
     <t>Costco Moorabbin</t>
   </si>
   <si>
-    <t>Costco NSW Oakdale</t>
-  </si>
-  <si>
-    <t>Costco Perth Airport</t>
-  </si>
-  <si>
-    <t>Costco Ringwood Warehouse</t>
-  </si>
-  <si>
-    <t>Dimbulah Grocer</t>
-  </si>
-  <si>
-    <t>Express Fruit Service</t>
-  </si>
-  <si>
-    <t>Fresco Market Place</t>
-  </si>
-  <si>
-    <t>Fresh Berries Direct</t>
-  </si>
-  <si>
-    <t>Fresh Berry Co Pty Ltd</t>
-  </si>
-  <si>
-    <t>Freshmax</t>
-  </si>
-  <si>
-    <t>Gilbert's Fresh</t>
-  </si>
-  <si>
-    <t>Golden Dawn</t>
+    <t>Harris Farm SYD</t>
   </si>
   <si>
     <t>Harris Farm BNE</t>
   </si>
   <si>
-    <t>Harris Farm SYD</t>
-  </si>
-  <si>
     <t>Jexbay Brisbane</t>
   </si>
   <si>
-    <t>JPT Ventures</t>
-  </si>
-  <si>
-    <t>Lind &amp; Sons Pty Ltd</t>
-  </si>
-  <si>
-    <t>Lindsay Fresh Australia</t>
-  </si>
-  <si>
-    <t>Marvelus Berries</t>
+    <t>MBM Promotional - QLD</t>
+  </si>
+  <si>
+    <t>MBM PROMOTIONAL - VIC</t>
   </si>
   <si>
     <t>MBM PROMOTIONAL - NSW</t>
   </si>
   <si>
-    <t>MBM Promotional - QLD</t>
-  </si>
-  <si>
-    <t>MBM PROMOTIONAL - VIC</t>
-  </si>
-  <si>
-    <t>Mercer Mooney</t>
-  </si>
-  <si>
     <t>Mercer Mooney - Market Floor</t>
   </si>
   <si>
-    <t>Metcash</t>
-  </si>
-  <si>
-    <t>Mode Logisitics</t>
-  </si>
-  <si>
-    <t>Mountain Blue Marketing</t>
-  </si>
-  <si>
-    <t>Packing Station</t>
-  </si>
-  <si>
     <t>Perfection Fresh BNE Market</t>
   </si>
   <si>
+    <t>Perfection Fresh SYD Market</t>
+  </si>
+  <si>
     <t>Perfection Fresh Brisbane</t>
   </si>
   <si>
     <t>Perfection Fresh Markets</t>
   </si>
   <si>
+    <t>Perfection Fresh Sydney</t>
+  </si>
+  <si>
     <t>Perfection Fresh Melbourne</t>
   </si>
   <si>
-    <t>Perfection Fresh SYD Market</t>
-  </si>
-  <si>
-    <t>Perfection Fresh Sydney</t>
-  </si>
-  <si>
-    <t>ProFruit</t>
-  </si>
-  <si>
-    <t>Robert J O'Shea and Ornella M Curcio</t>
-  </si>
-  <si>
-    <t>Scalzi Produce</t>
-  </si>
-  <si>
-    <t>Scomazzon Farm Store</t>
-  </si>
-  <si>
-    <t>Seaway Sydney</t>
-  </si>
-  <si>
-    <t>Secret Chef Catering</t>
-  </si>
-  <si>
-    <t>Sharp Tubestock and Nursery – Jen Pope</t>
-  </si>
-  <si>
     <t>Steritech QLD</t>
   </si>
   <si>
     <t>Steritech VIC</t>
   </si>
   <si>
-    <t>Sunrise Berries</t>
-  </si>
-  <si>
-    <t>Tableland Fresh Produce</t>
-  </si>
-  <si>
-    <t>The Herdsman Markets</t>
-  </si>
-  <si>
-    <t>The Humpy</t>
-  </si>
-  <si>
-    <t>TI Produce Marketing</t>
-  </si>
-  <si>
-    <t>Tonnage Warehouse</t>
+    <t>Valley Fresh Melbourne</t>
   </si>
   <si>
     <t>Valley Fresh Brisbane</t>
   </si>
   <si>
-    <t>Valley Fresh Melbourne</t>
-  </si>
-  <si>
     <t>Valley Fresh Sydney</t>
   </si>
   <si>
-    <t>Watt Export</t>
-  </si>
-  <si>
     <t>Woolworths Gepps Cross DC</t>
   </si>
   <si>
@@ -330,19 +371,16 @@
     <t>Woolworths Tasmania DC</t>
   </si>
   <si>
+    <t>Woolworths Truganina DC</t>
+  </si>
+  <si>
+    <t>Woolworths Wyong DC</t>
+  </si>
+  <si>
+    <t>Woolworths Wodonga DC</t>
+  </si>
+  <si>
     <t>Woolworths Townsville DC</t>
-  </si>
-  <si>
-    <t>Woolworths Truganina DC</t>
-  </si>
-  <si>
-    <t>Woolworths Wodonga DC</t>
-  </si>
-  <si>
-    <t>Woolworths Wyong DC</t>
-  </si>
-  <si>
-    <t>Consignee</t>
   </si>
 </sst>
 </file>
@@ -733,69 +771,70 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -803,87 +842,87 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -891,215 +930,215 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>10</v>
@@ -1107,39 +1146,39 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>10</v>
@@ -1147,23 +1186,23 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
@@ -1171,303 +1210,303 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
@@ -1475,45 +1514,170 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B111">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
